--- a/Assembly/with_pcb/BOM_complete.xlsx
+++ b/Assembly/with_pcb/BOM_complete.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Tecladitow40\Assembly\with_pcb\pcb\CAM\CAMOutputs\Assembly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Tecladitow40\Assembly\with_pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{668B8E73-7F4F-44B8-9B8F-41CFEAA97771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1447CDC5-2FE0-49DD-A8AF-49A2E6E34F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_selfsource" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="88">
   <si>
     <t>Item #</t>
   </si>
@@ -275,14 +287,23 @@
   </si>
   <si>
     <t>PCB</t>
+  </si>
+  <si>
+    <t>M2.5</t>
+  </si>
+  <si>
+    <t>Screws</t>
+  </si>
+  <si>
+    <t>48 Ortholinear keycaps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -754,8 +775,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -767,9 +792,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -780,10 +803,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -832,7 +855,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -865,13 +888,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -881,8 +898,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="4" borderId="10" xfId="8" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="8" fillId="4" borderId="10" xfId="8" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="8" fillId="4" borderId="13" xfId="8" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="10" xfId="8" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" xfId="8" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="13" xfId="8" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1238,11 +1265,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2098,184 +2125,246 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F17" s="14" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="8">
+        <v>5</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F19" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="12" t="s">
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K19" s="23">
         <f>SUM(K1:K16)</f>
         <v>53.260000000000005</v>
       </c>
-      <c r="L17" s="19">
-        <f t="shared" ref="L17:O17" si="5">SUM(L1:L16)</f>
+      <c r="L19" s="23">
+        <f>SUM(L1:L16)</f>
         <v>58.02000000000001</v>
       </c>
-      <c r="M17" s="19">
-        <f t="shared" si="5"/>
+      <c r="M19" s="23">
+        <f>SUM(M1:M16)</f>
         <v>76.89</v>
       </c>
-      <c r="N17" s="19">
-        <f t="shared" si="5"/>
+      <c r="N19" s="23">
+        <f>SUM(N1:N16)</f>
         <v>76.89</v>
       </c>
-      <c r="O17" s="19">
-        <f t="shared" si="5"/>
+      <c r="O19" s="23">
+        <f>SUM(O1:O16)</f>
         <v>86.7</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J18" s="16" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J20" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="K18" s="21">
-        <f>K17/1</f>
+      <c r="K20" s="19">
+        <f>K19/1</f>
         <v>53.260000000000005</v>
       </c>
-      <c r="L18" s="21">
-        <f>L17/2</f>
+      <c r="L20" s="19">
+        <f>L19/2</f>
         <v>29.010000000000005</v>
       </c>
-      <c r="M18" s="21">
-        <f>M17/3</f>
+      <c r="M20" s="19">
+        <f>M19/3</f>
         <v>25.63</v>
       </c>
-      <c r="N18" s="21">
-        <f>N17/4</f>
+      <c r="N20" s="19">
+        <f>N19/4</f>
         <v>19.2225</v>
       </c>
-      <c r="O18" s="21">
-        <f>O17/5</f>
+      <c r="O20" s="19">
+        <f>O19/5</f>
         <v>17.34</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
-        <v>16</v>
-      </c>
-      <c r="B19" s="18" t="s">
+    <row r="21" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>18</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D21" s="15">
         <v>1</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E21" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G21" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I21" s="9">
         <v>5</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J21" s="9">
         <f>16.8+43.7</f>
         <v>60.5</v>
       </c>
-      <c r="K19" s="6">
-        <f t="shared" ref="K19" si="6">IF(I19&gt;D19,J19,(ROUNDUP(D19/I19,0)*J19))</f>
+      <c r="K21" s="6">
+        <f t="shared" ref="K21" si="5">IF(I21&gt;D21,J21,(ROUNDUP(D21/I21,0)*J21))</f>
         <v>60.5</v>
       </c>
-      <c r="L19" s="6">
-        <f t="shared" ref="L19" si="7">IF(I19&gt;(D19*2),J19,(ROUNDUP(D19/I19,0)*J19))</f>
+      <c r="L21" s="6">
+        <f t="shared" ref="L21" si="6">IF(I21&gt;(D21*2),J21,(ROUNDUP(D21/I21,0)*J21))</f>
         <v>60.5</v>
       </c>
-      <c r="M19" s="6">
-        <f t="shared" ref="M19" si="8">IF(I19&gt;(D19*3),J19,(ROUNDUP((D19*3)/I19,0)*J19))</f>
+      <c r="M21" s="6">
+        <f t="shared" ref="M21" si="7">IF(I21&gt;(D21*3),J21,(ROUNDUP((D21*3)/I21,0)*J21))</f>
         <v>60.5</v>
       </c>
-      <c r="N19" s="6">
-        <f t="shared" ref="N19" si="9">IF(I19&gt;(D19*4),J19,(ROUNDUP((D19*4)/I19,0)*J19))</f>
+      <c r="N21" s="6">
+        <f t="shared" ref="N21" si="8">IF(I21&gt;(D21*4),J21,(ROUNDUP((D21*4)/I21,0)*J21))</f>
         <v>60.5</v>
       </c>
-      <c r="O19" s="6">
-        <f t="shared" ref="O19" si="10">IF(I19&gt;(D19*5),J19,(ROUNDUP((D19*5)/I19,0)*J19))</f>
+      <c r="O21" s="6">
+        <f t="shared" ref="O21" si="9">IF(I21&gt;(D21*5),J21,(ROUNDUP((D21*5)/I21,0)*J21))</f>
         <v>60.5</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C20"/>
-      <c r="F20"/>
-      <c r="J20" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="K20" s="19">
-        <f>K19+K17</f>
-        <v>113.76</v>
-      </c>
-      <c r="L20" s="19">
-        <f>L17+L19</f>
-        <v>118.52000000000001</v>
-      </c>
-      <c r="M20" s="19">
-        <f t="shared" ref="M20:O20" si="11">M17+M19</f>
-        <v>137.38999999999999</v>
-      </c>
-      <c r="N20" s="19">
-        <f t="shared" si="11"/>
-        <v>137.38999999999999</v>
-      </c>
-      <c r="O20" s="19">
-        <f t="shared" si="11"/>
-        <v>147.19999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21"/>
-      <c r="F21"/>
-      <c r="J21" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="K21" s="20">
-        <f>K20/1</f>
-        <v>113.76</v>
-      </c>
-      <c r="L21" s="20">
-        <f>L20/2</f>
-        <v>59.260000000000005</v>
-      </c>
-      <c r="M21" s="20">
-        <f>M20/3</f>
-        <v>45.79666666666666</v>
-      </c>
-      <c r="N21" s="20">
-        <f>N20/4</f>
-        <v>34.347499999999997</v>
-      </c>
-      <c r="O21" s="20">
-        <f>O20/5</f>
-        <v>29.439999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C22"/>
       <c r="F22"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J22" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" s="17">
+        <f>K21+K19</f>
+        <v>113.76</v>
+      </c>
+      <c r="L22" s="17">
+        <f>L19+L21</f>
+        <v>118.52000000000001</v>
+      </c>
+      <c r="M22" s="17">
+        <f t="shared" ref="M22:O22" si="10">M19+M21</f>
+        <v>137.38999999999999</v>
+      </c>
+      <c r="N22" s="17">
+        <f t="shared" si="10"/>
+        <v>137.38999999999999</v>
+      </c>
+      <c r="O22" s="17">
+        <f t="shared" si="10"/>
+        <v>147.19999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C23"/>
       <c r="F23"/>
+      <c r="J23" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K23" s="18">
+        <f>K22/1</f>
+        <v>113.76</v>
+      </c>
+      <c r="L23" s="18">
+        <f>L22/2</f>
+        <v>59.260000000000005</v>
+      </c>
+      <c r="M23" s="18">
+        <f>M22/3</f>
+        <v>45.79666666666666</v>
+      </c>
+      <c r="N23" s="18">
+        <f>N22/4</f>
+        <v>34.347499999999997</v>
+      </c>
+      <c r="O23" s="18">
+        <f>O22/5</f>
+        <v>29.439999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C24"/>
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C25"/>
+      <c r="F25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F19:I19"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="P5" r:id="rId1"/>
-    <hyperlink ref="P12" r:id="rId2"/>
+    <hyperlink ref="P5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="P12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
